--- a/PCB/02 Plans & Actuals/2.2_WBS & Sprint plan/SeeNowDo_Task_assignment_20150913.xlsx
+++ b/PCB/02 Plans & Actuals/2.2_WBS & Sprint plan/SeeNowDo_Task_assignment_20150913.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Scoure Code" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task List'!$F$2:$H$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task List'!$F$2:$H$47</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="296">
   <si>
     <t>User Story</t>
   </si>
@@ -722,9 +722,6 @@
     <t>│  │      login2.html</t>
   </si>
   <si>
-    <t>│  │      success story main - 副本.html</t>
-  </si>
-  <si>
     <t>│  │      successstory.html</t>
   </si>
   <si>
@@ -909,6 +906,9 @@
   </si>
   <si>
     <t>V, Kaii</t>
+  </si>
+  <si>
+    <t>Clay</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1093,6 +1093,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1394,7 +1402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H46"/>
+  <dimension ref="B2:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1464,37 +1472,39 @@
       <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="13">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>10</v>
@@ -1505,143 +1515,143 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="11">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="13">
@@ -1649,16 +1659,20 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="5">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="13">
@@ -1666,58 +1680,58 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
-        <v>5</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="7">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1730,38 +1744,38 @@
         <v>33</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>42</v>
@@ -1775,13 +1789,13 @@
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13">
@@ -1792,30 +1806,30 @@
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13">
@@ -1823,71 +1837,69 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="11">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13">
-        <v>2</v>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="20">
+        <v>58</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="5">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="11">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="11">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="13">
@@ -1895,101 +1907,105 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D29" s="11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="13">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="13">
@@ -1997,68 +2013,68 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="11">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="11">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="22">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="23">
         <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="11">
-        <v>2</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>40</v>
@@ -2072,13 +2088,13 @@
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="13">
@@ -2089,10 +2105,10 @@
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>54</v>
@@ -2106,10 +2122,10 @@
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>54</v>
@@ -2123,10 +2139,10 @@
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>54</v>
@@ -2140,10 +2156,10 @@
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>54</v>
@@ -2157,41 +2173,41 @@
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>62</v>
@@ -2201,11 +2217,28 @@
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11">
+        <v>98</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F2:H46"/>
+  <autoFilter ref="F2:H47"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2213,9 +2246,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG258"/>
+  <dimension ref="B1:AG257"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="AG270" sqref="AG270"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2423,7 +2458,7 @@
         <v>94</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG34" s="18"/>
     </row>
@@ -2581,7 +2616,9 @@
       <c r="B60" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="AG60" s="18"/>
+      <c r="AG60" s="18" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="61" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
@@ -2968,7 +3005,7 @@
         <v>94</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG77" s="18"/>
     </row>
@@ -3406,7 +3443,7 @@
     </row>
     <row r="148" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG148" s="18"/>
     </row>
@@ -3606,7 +3643,9 @@
       <c r="B181" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="AG181" s="18"/>
+      <c r="AG181" s="18" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="182" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="15" t="s">
@@ -3640,13 +3679,13 @@
     </row>
     <row r="187" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="15" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="AG187" s="18"/>
     </row>
     <row r="188" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="15" t="s">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="AG188" s="18"/>
     </row>
@@ -3786,29 +3825,35 @@
       <c r="B211" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AG211" s="18"/>
+      <c r="AG211" s="18" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="212" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AG212" s="18"/>
+      <c r="AG212" s="18" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="213" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="AG213" s="18"/>
+      <c r="AG213" s="18" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="214" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="15" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AG214" s="18"/>
     </row>
     <row r="215" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="15" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AG215" s="18"/>
     </row>
@@ -3826,13 +3871,13 @@
     </row>
     <row r="218" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AG218" s="18"/>
     </row>
     <row r="219" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="15" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AG219" s="18"/>
     </row>
@@ -3850,13 +3895,13 @@
     </row>
     <row r="222" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="15" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="AG222" s="18"/>
     </row>
     <row r="223" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="15" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="AG223" s="18"/>
     </row>
@@ -3870,17 +3915,19 @@
       <c r="B225" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="AG225" s="18"/>
+      <c r="AG225" s="18" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="226" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="15" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="AG226" s="18"/>
     </row>
     <row r="227" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="15" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="AG227" s="18"/>
     </row>
@@ -3888,14 +3935,16 @@
       <c r="B228" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="AG228" s="18"/>
+      <c r="AG228" s="18" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="229" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="15" t="s">
         <v>273</v>
       </c>
       <c r="AG229" s="18" t="s">
-        <v>295</v>
+        <v>40</v>
       </c>
     </row>
     <row r="230" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3903,7 +3952,7 @@
         <v>274</v>
       </c>
       <c r="AG230" s="18" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
     </row>
     <row r="231" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3927,7 +3976,7 @@
         <v>277</v>
       </c>
       <c r="AG233" s="18" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
     </row>
     <row r="234" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3936,11 +3985,11 @@
       </c>
       <c r="AG234" s="18"/>
     </row>
-    <row r="235" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="15" t="s">
+    <row r="235" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="AG235" s="18"/>
+      <c r="AG235" s="19"/>
     </row>
     <row r="236" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="17" t="s">
@@ -3956,43 +4005,43 @@
     </row>
     <row r="238" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="17" t="s">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="AG238" s="19"/>
     </row>
     <row r="239" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AG239" s="19"/>
     </row>
     <row r="240" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="17" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AG240" s="19"/>
     </row>
     <row r="241" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="17" t="s">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="AG241" s="19"/>
     </row>
     <row r="242" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="17" t="s">
-        <v>293</v>
+        <v>116</v>
       </c>
       <c r="AG242" s="19"/>
     </row>
-    <row r="243" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG243" s="19"/>
+    <row r="243" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG243" s="18"/>
     </row>
     <row r="244" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="15" t="s">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="AG244" s="18"/>
     </row>
@@ -4014,27 +4063,27 @@
       </c>
       <c r="AG247" s="18"/>
     </row>
-    <row r="248" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG248" s="18"/>
+    <row r="248" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG248" s="19"/>
     </row>
     <row r="249" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="17" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="AG249" s="19"/>
     </row>
     <row r="250" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="17" t="s">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="AG250" s="19"/>
     </row>
     <row r="251" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="17" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AG251" s="19"/>
     </row>
@@ -4058,27 +4107,21 @@
     </row>
     <row r="255" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="17" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG255" s="19"/>
     </row>
     <row r="256" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="17" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="AG256" s="19"/>
     </row>
     <row r="257" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="17" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AG257" s="19"/>
-    </row>
-    <row r="258" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG258" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PCB/02 Plans & Actuals/2.2_WBS & Sprint plan/SeeNowDo_Task_assignment_20150913.xlsx
+++ b/PCB/02 Plans & Actuals/2.2_WBS & Sprint plan/SeeNowDo_Task_assignment_20150913.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task List" sheetId="1" r:id="rId1"/>
-    <sheet name="Scoure Code" sheetId="2" r:id="rId2"/>
+    <sheet name="Scoure Code" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task List'!$F$2:$H$47</definedName>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="353">
   <si>
     <t>User Story</t>
   </si>
@@ -896,19 +896,190 @@
     <t>└─TestResults</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>│  │  └─ …</t>
-  </si>
-  <si>
-    <t>│  └─ …</t>
-  </si>
-  <si>
     <t>V, Kaii</t>
   </si>
   <si>
     <t>Clay</t>
+  </si>
+  <si>
+    <t>│  │  │  .DS_Store</t>
+  </si>
+  <si>
+    <t>│  │  │  Albert_Einstein.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  ANZTB_Logo.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  back-to-top.icon.png</t>
+  </si>
+  <si>
+    <t>│  │  │  books_large-300x184.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  books_stores_bookshelf_blurred_1920x1080_vehiclehi.com.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  facebook.png</t>
+  </si>
+  <si>
+    <t>│  │  │  favicon.ico</t>
+  </si>
+  <si>
+    <t>│  │  │  google-plus.png</t>
+  </si>
+  <si>
+    <t>│  │  │  icons.png</t>
+  </si>
+  <si>
+    <t>│  │  │  into.png</t>
+  </si>
+  <si>
+    <t>│  │  │  ISTQB Accred Training Provider.jpeg</t>
+  </si>
+  <si>
+    <t>│  │  │  ISTQB International_original.jpeg</t>
+  </si>
+  <si>
+    <t>│  │  │  Jared_Leto.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  justin-bieber.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  Ken_Stabler.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  linked-in.ico</t>
+  </si>
+  <si>
+    <t>│  │  │  logo-android.png</t>
+  </si>
+  <si>
+    <t>│  │  │  logo-cisco.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  logo-istqb.png</t>
+  </si>
+  <si>
+    <t>│  │  │  logo-redhat.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  logo0.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  no_image.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  recruitment_hr.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  researchbooks-300x184.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  Scarlett-Johansson.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  search-icon-hi.png</t>
+  </si>
+  <si>
+    <t>│  │  │  Story_20150909155340255_untitled.png</t>
+  </si>
+  <si>
+    <t>│  │  │  Story_20150909192627226_avril-lavigne.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  Story_20150909195721136_Taylor-Alison-Swift.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  student_01.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  student_02.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  student_03.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  student_04.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  teacher.png</t>
+  </si>
+  <si>
+    <t>│  │  │  temp-books-place-holder-300x184.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  test-automation-header.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  Training-icon_droite.png</t>
+  </si>
+  <si>
+    <t>│  │  │  training-image.jpg</t>
+  </si>
+  <si>
+    <t>│  │  │  twitter2.ico</t>
+  </si>
+  <si>
+    <t>│  │  └─successstory</t>
+  </si>
+  <si>
+    <t>│  │          a.jpeg</t>
+  </si>
+  <si>
+    <t>│  │          app.png</t>
+  </si>
+  <si>
+    <t>│  │          b.jpeg</t>
+  </si>
+  <si>
+    <t>│  │          facebook.png</t>
+  </si>
+  <si>
+    <t>│  │          google-plus.png</t>
+  </si>
+  <si>
+    <t>│  │          jb.jpeg</t>
+  </si>
+  <si>
+    <t>│  │          linked-in.ico</t>
+  </si>
+  <si>
+    <t>│  │          mayun.jpeg</t>
+  </si>
+  <si>
+    <t>│  │          re.jpeg</t>
+  </si>
+  <si>
+    <t>│  │          student.jpg</t>
+  </si>
+  <si>
+    <t>│  │          twitter2.ico</t>
+  </si>
+  <si>
+    <t>│  │          work.jpg</t>
+  </si>
+  <si>
+    <t>│  │  └─Debug</t>
+  </si>
+  <si>
+    <t>│  ├─Service References</t>
+  </si>
+  <si>
+    <t>│  │  │  …</t>
+  </si>
+  <si>
+    <t>│  │      │  …</t>
+  </si>
+  <si>
+    <t>Shawn, Kaii</t>
+  </si>
+  <si>
+    <t>│  │      │ …</t>
+  </si>
+  <si>
+    <t>│  ├─ …</t>
   </si>
 </sst>
 </file>
@@ -919,7 +1090,7 @@
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -942,20 +1113,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
@@ -981,7 +1146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1050,11 +1215,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1083,16 +1257,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1101,6 +1266,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1839,7 +2008,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="20">
+      <c r="D25" s="15">
         <v>58</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -1849,7 +2018,7 @@
         <v>40</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="21">
+      <c r="H25" s="16">
         <v>3</v>
       </c>
     </row>
@@ -2053,7 +2222,7 @@
       <c r="C37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="17">
         <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
@@ -2063,7 +2232,7 @@
         <v>54</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="23">
+      <c r="H37" s="18">
         <v>4</v>
       </c>
     </row>
@@ -2246,1884 +2415,1943 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG257"/>
+  <dimension ref="B2:AA314"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="AG270" sqref="AG270"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.7109375" style="14"/>
+    <col min="1" max="16384" width="2.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15"/>
-      <c r="AG1" s="18"/>
-    </row>
-    <row r="2" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="18"/>
-    </row>
-    <row r="3" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AG3" s="18"/>
-    </row>
-    <row r="4" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="AA3" s="22"/>
+    </row>
+    <row r="4" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="18"/>
-    </row>
-    <row r="5" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="AA4" s="22"/>
+    </row>
+    <row r="5" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AG5" s="18"/>
-    </row>
-    <row r="6" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="AA5" s="22"/>
+    </row>
+    <row r="6" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AG6" s="18"/>
-    </row>
-    <row r="7" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="AA6" s="22"/>
+    </row>
+    <row r="7" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AG7" s="18"/>
-    </row>
-    <row r="8" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="AA7" s="22"/>
+    </row>
+    <row r="8" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AG8" s="18"/>
-    </row>
-    <row r="9" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="AA8" s="22"/>
+    </row>
+    <row r="9" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AG9" s="18"/>
-    </row>
-    <row r="10" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="AA9" s="22"/>
+    </row>
+    <row r="10" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AG10" s="18"/>
-    </row>
-    <row r="11" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="AA10" s="22"/>
+    </row>
+    <row r="11" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AG11" s="18"/>
-    </row>
-    <row r="12" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="AA11" s="22"/>
+    </row>
+    <row r="12" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AG12" s="18"/>
-    </row>
-    <row r="13" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="AA12" s="22"/>
+    </row>
+    <row r="13" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AG13" s="18"/>
-    </row>
-    <row r="14" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+      <c r="AA13" s="22"/>
+    </row>
+    <row r="14" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AG14" s="18"/>
-    </row>
-    <row r="15" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="AA14" s="22"/>
+    </row>
+    <row r="15" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AG15" s="18"/>
-    </row>
-    <row r="16" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="AA15" s="22"/>
+    </row>
+    <row r="16" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="AG16" s="18"/>
-    </row>
-    <row r="17" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="AA16" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AG17" s="18"/>
-    </row>
-    <row r="18" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="AA17" s="22"/>
+    </row>
+    <row r="18" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AG18" s="18"/>
-    </row>
-    <row r="19" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="AA18" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AG19" s="18"/>
-    </row>
-    <row r="20" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="AA19" s="22"/>
+    </row>
+    <row r="20" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AG20" s="18"/>
-    </row>
-    <row r="21" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="AA20" s="22"/>
+    </row>
+    <row r="21" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="AG21" s="18"/>
-    </row>
-    <row r="22" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+      <c r="AA21" s="22"/>
+    </row>
+    <row r="22" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="AG22" s="18"/>
-    </row>
-    <row r="23" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="AA22" s="22"/>
+    </row>
+    <row r="23" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AG23" s="18"/>
-    </row>
-    <row r="24" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="AA23" s="22"/>
+    </row>
+    <row r="24" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AG24" s="18"/>
-    </row>
-    <row r="25" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="AA24" s="22"/>
+    </row>
+    <row r="25" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AG25" s="18"/>
-    </row>
-    <row r="26" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="AA25" s="22"/>
+    </row>
+    <row r="26" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AG26" s="18"/>
-    </row>
-    <row r="27" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="AA26" s="22"/>
+    </row>
+    <row r="27" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AG27" s="18"/>
-    </row>
-    <row r="28" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+      <c r="AA27" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AG28" s="18"/>
-    </row>
-    <row r="29" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="AA28" s="20"/>
+    </row>
+    <row r="29" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AG29" s="18"/>
-    </row>
-    <row r="30" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="AA29" s="20"/>
+    </row>
+    <row r="30" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AG30" s="18"/>
-    </row>
-    <row r="31" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+      <c r="AA30" s="20"/>
+    </row>
+    <row r="31" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AG31" s="18"/>
-    </row>
-    <row r="32" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
+      <c r="AA31" s="20"/>
+    </row>
+    <row r="32" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AG32" s="18"/>
-    </row>
-    <row r="33" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+      <c r="AA32" s="22"/>
+    </row>
+    <row r="33" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="AG33" s="18"/>
-    </row>
-    <row r="34" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+      <c r="AA33" s="22"/>
+    </row>
+    <row r="34" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA34" s="22"/>
+    </row>
+    <row r="35" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA35" s="22"/>
+    </row>
+    <row r="36" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA36" s="22"/>
+    </row>
+    <row r="37" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA37" s="22"/>
+    </row>
+    <row r="38" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA38" s="22"/>
+    </row>
+    <row r="39" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA39" s="22"/>
+    </row>
+    <row r="40" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA40" s="22"/>
+    </row>
+    <row r="41" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA41" s="22"/>
+    </row>
+    <row r="42" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA42" s="20"/>
+    </row>
+    <row r="43" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA43" s="20"/>
+    </row>
+    <row r="44" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA44" s="20"/>
+    </row>
+    <row r="45" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA45" s="20"/>
+    </row>
+    <row r="46" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="AA46" s="22"/>
+    </row>
+    <row r="47" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA47" s="22"/>
+    </row>
+    <row r="48" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA48" s="22"/>
+    </row>
+    <row r="49" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA49" s="22"/>
+    </row>
+    <row r="50" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA50" s="22"/>
+    </row>
+    <row r="51" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA51" s="22"/>
+    </row>
+    <row r="52" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA52" s="22"/>
+    </row>
+    <row r="53" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA53" s="22"/>
+    </row>
+    <row r="54" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA54" s="22"/>
+    </row>
+    <row r="55" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA55" s="20"/>
+    </row>
+    <row r="56" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA56" s="20"/>
+    </row>
+    <row r="57" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA57" s="22"/>
+    </row>
+    <row r="58" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA58" s="22"/>
+    </row>
+    <row r="59" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA59" s="20"/>
+    </row>
+    <row r="60" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA60" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA61" s="20"/>
+    </row>
+    <row r="62" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA62" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA63" s="22"/>
+    </row>
+    <row r="64" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA64" s="22"/>
+    </row>
+    <row r="65" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA65" s="22"/>
+    </row>
+    <row r="66" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA66" s="22"/>
+    </row>
+    <row r="67" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA67" s="22"/>
+    </row>
+    <row r="68" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA68" s="22"/>
+    </row>
+    <row r="69" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA69" s="22"/>
+    </row>
+    <row r="70" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA70" s="22"/>
+    </row>
+    <row r="71" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA71" s="22"/>
+    </row>
+    <row r="72" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA72" s="22"/>
+    </row>
+    <row r="73" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA73" s="22"/>
+    </row>
+    <row r="74" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA74" s="22"/>
+    </row>
+    <row r="75" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA75" s="22"/>
+    </row>
+    <row r="76" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA76" s="22"/>
+    </row>
+    <row r="77" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA77" s="22"/>
+    </row>
+    <row r="78" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA78" s="22"/>
+    </row>
+    <row r="79" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA79" s="22"/>
+    </row>
+    <row r="80" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA80" s="22"/>
+    </row>
+    <row r="81" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA81" s="22"/>
+    </row>
+    <row r="82" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA82" s="22"/>
+    </row>
+    <row r="83" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA83" s="22"/>
+    </row>
+    <row r="84" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA84" s="22"/>
+    </row>
+    <row r="85" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA85" s="22"/>
+    </row>
+    <row r="86" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA86" s="22"/>
+    </row>
+    <row r="87" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA87" s="22"/>
+    </row>
+    <row r="88" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA88" s="22"/>
+    </row>
+    <row r="89" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA89" s="22"/>
+    </row>
+    <row r="90" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA90" s="22"/>
+    </row>
+    <row r="91" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA91" s="22"/>
+    </row>
+    <row r="92" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA92" s="22"/>
+    </row>
+    <row r="93" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA93" s="22"/>
+    </row>
+    <row r="94" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA94" s="22"/>
+    </row>
+    <row r="95" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA95" s="22"/>
+    </row>
+    <row r="96" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA96" s="22"/>
+    </row>
+    <row r="97" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA97" s="22"/>
+    </row>
+    <row r="98" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA98" s="22"/>
+    </row>
+    <row r="99" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA99" s="22"/>
+    </row>
+    <row r="100" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA100" s="22"/>
+    </row>
+    <row r="101" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA101" s="22"/>
+    </row>
+    <row r="102" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA102" s="22"/>
+    </row>
+    <row r="103" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA103" s="22"/>
+    </row>
+    <row r="104" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA104" s="22"/>
+    </row>
+    <row r="105" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA105" s="22"/>
+    </row>
+    <row r="106" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA106" s="22"/>
+    </row>
+    <row r="107" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA107" s="22"/>
+    </row>
+    <row r="108" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA108" s="22"/>
+    </row>
+    <row r="109" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA109" s="22"/>
+    </row>
+    <row r="110" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA110" s="22"/>
+    </row>
+    <row r="111" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA111" s="22"/>
+    </row>
+    <row r="112" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA112" s="22"/>
+    </row>
+    <row r="113" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA113" s="22"/>
+    </row>
+    <row r="114" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA114" s="22"/>
+    </row>
+    <row r="115" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA115" s="22"/>
+    </row>
+    <row r="116" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA116" s="22"/>
+    </row>
+    <row r="117" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA117" s="22"/>
+    </row>
+    <row r="118" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA118" s="22"/>
+    </row>
+    <row r="119" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA119" s="22"/>
+    </row>
+    <row r="120" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA120" s="22"/>
+    </row>
+    <row r="121" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA121" s="22"/>
+    </row>
+    <row r="122" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA122" s="22"/>
+    </row>
+    <row r="123" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA123" s="22"/>
+    </row>
+    <row r="124" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA124" s="22"/>
+    </row>
+    <row r="125" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA125" s="22"/>
+    </row>
+    <row r="126" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA126" s="22"/>
+    </row>
+    <row r="127" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA127" s="22"/>
+    </row>
+    <row r="128" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA128" s="22"/>
+    </row>
+    <row r="129" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA129" s="22"/>
+    </row>
+    <row r="130" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA130" s="22"/>
+    </row>
+    <row r="131" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA131" s="22"/>
+    </row>
+    <row r="132" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA132" s="22"/>
+    </row>
+    <row r="133" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA133" s="20"/>
+    </row>
+    <row r="134" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA134" s="20"/>
+    </row>
+    <row r="135" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA135" s="20"/>
+    </row>
+    <row r="136" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA136" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA137" s="20"/>
+    </row>
+    <row r="138" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA138" s="20"/>
+    </row>
+    <row r="139" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA139" s="20"/>
+    </row>
+    <row r="140" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA140" s="20"/>
+    </row>
+    <row r="141" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA141" s="20"/>
+    </row>
+    <row r="142" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA142" s="20"/>
+    </row>
+    <row r="143" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA143" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA144" s="20"/>
+    </row>
+    <row r="145" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA145" s="20"/>
+    </row>
+    <row r="146" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA146" s="20"/>
+    </row>
+    <row r="147" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA147" s="20"/>
+    </row>
+    <row r="148" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA148" s="20"/>
+    </row>
+    <row r="149" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA149" s="20"/>
+    </row>
+    <row r="150" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA150" s="20"/>
+    </row>
+    <row r="151" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA151" s="20"/>
+    </row>
+    <row r="152" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA152" s="20"/>
+    </row>
+    <row r="153" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA153" s="20"/>
+    </row>
+    <row r="154" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA154" s="20"/>
+    </row>
+    <row r="155" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA155" s="20"/>
+    </row>
+    <row r="156" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA156" s="20"/>
+    </row>
+    <row r="157" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA157" s="20"/>
+    </row>
+    <row r="158" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA158" s="20"/>
+    </row>
+    <row r="159" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA159" s="20"/>
+    </row>
+    <row r="160" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA160" s="20"/>
+    </row>
+    <row r="161" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA161" s="20"/>
+    </row>
+    <row r="162" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA162" s="20"/>
+    </row>
+    <row r="163" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA163" s="20"/>
+    </row>
+    <row r="164" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA164" s="20"/>
+    </row>
+    <row r="165" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA165" s="20"/>
+    </row>
+    <row r="166" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA166" s="20"/>
+    </row>
+    <row r="167" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA167" s="20"/>
+    </row>
+    <row r="168" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA168" s="20"/>
+    </row>
+    <row r="169" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA169" s="20"/>
+    </row>
+    <row r="170" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA170" s="20"/>
+    </row>
+    <row r="171" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA171" s="20"/>
+    </row>
+    <row r="172" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA172" s="20"/>
+    </row>
+    <row r="173" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA173" s="20"/>
+    </row>
+    <row r="174" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA174" s="20"/>
+    </row>
+    <row r="175" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA175" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA176" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA177" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA178" s="20"/>
+    </row>
+    <row r="179" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA179" s="20"/>
+    </row>
+    <row r="180" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA180" s="20"/>
+    </row>
+    <row r="181" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA181" s="20"/>
+    </row>
+    <row r="182" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA182" s="20"/>
+    </row>
+    <row r="183" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA183" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA184" s="20"/>
+    </row>
+    <row r="185" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA185" s="20"/>
+    </row>
+    <row r="186" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA186" s="20"/>
+    </row>
+    <row r="187" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA187" s="20"/>
+    </row>
+    <row r="188" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA188" s="20"/>
+    </row>
+    <row r="189" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA189" s="20"/>
+    </row>
+    <row r="190" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA190" s="20"/>
+    </row>
+    <row r="191" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA191" s="20"/>
+    </row>
+    <row r="192" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA192" s="20"/>
+    </row>
+    <row r="193" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA193" s="20"/>
+    </row>
+    <row r="194" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA194" s="20"/>
+    </row>
+    <row r="195" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA195" s="20"/>
+    </row>
+    <row r="196" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA196" s="20"/>
+    </row>
+    <row r="197" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA197" s="20"/>
+    </row>
+    <row r="198" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA198" s="20"/>
+    </row>
+    <row r="199" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA199" s="20"/>
+    </row>
+    <row r="200" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA200" s="22"/>
+    </row>
+    <row r="201" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA201" s="22"/>
+    </row>
+    <row r="202" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA202" s="22"/>
+    </row>
+    <row r="203" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA203" s="22"/>
+    </row>
+    <row r="204" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA204" s="22"/>
+    </row>
+    <row r="205" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA205" s="22"/>
+    </row>
+    <row r="206" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA206" s="22"/>
+    </row>
+    <row r="207" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA207" s="22"/>
+    </row>
+    <row r="208" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA208" s="22"/>
+    </row>
+    <row r="209" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA209" s="22"/>
+    </row>
+    <row r="210" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA210" s="22"/>
+    </row>
+    <row r="211" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA211" s="22"/>
+    </row>
+    <row r="212" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA212" s="22"/>
+    </row>
+    <row r="213" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA213" s="22"/>
+    </row>
+    <row r="214" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA214" s="22"/>
+    </row>
+    <row r="215" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA215" s="22"/>
+    </row>
+    <row r="216" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA216" s="22"/>
+    </row>
+    <row r="217" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA217" s="22"/>
+    </row>
+    <row r="218" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA218" s="22"/>
+    </row>
+    <row r="219" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA219" s="22"/>
+    </row>
+    <row r="220" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA220" s="22"/>
+    </row>
+    <row r="221" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA221" s="22"/>
+    </row>
+    <row r="222" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA222" s="22"/>
+    </row>
+    <row r="223" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA223" s="22"/>
+    </row>
+    <row r="224" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA224" s="22"/>
+    </row>
+    <row r="225" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA225" s="22"/>
+    </row>
+    <row r="226" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA226" s="22"/>
+    </row>
+    <row r="227" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA227" s="22"/>
+    </row>
+    <row r="228" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA228" s="22"/>
+    </row>
+    <row r="229" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA229" s="22"/>
+    </row>
+    <row r="230" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA230" s="22"/>
+    </row>
+    <row r="231" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA231" s="22"/>
+    </row>
+    <row r="232" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA232" s="22"/>
+    </row>
+    <row r="233" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA233" s="22"/>
+    </row>
+    <row r="234" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA234" s="20"/>
+    </row>
+    <row r="235" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA235" s="20"/>
+    </row>
+    <row r="236" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA236" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="237" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA237" s="20"/>
+    </row>
+    <row r="238" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA238" s="20"/>
+    </row>
+    <row r="239" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA239" s="20"/>
+    </row>
+    <row r="240" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA240" s="20"/>
+    </row>
+    <row r="241" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA241" s="20"/>
+    </row>
+    <row r="242" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA242" s="20"/>
+    </row>
+    <row r="243" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA243" s="20"/>
+    </row>
+    <row r="244" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA244" s="20"/>
+    </row>
+    <row r="245" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA245" s="20"/>
+    </row>
+    <row r="246" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA246" s="20"/>
+    </row>
+    <row r="247" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA247" s="20"/>
+    </row>
+    <row r="248" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA248" s="20"/>
+    </row>
+    <row r="249" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA249" s="20"/>
+    </row>
+    <row r="250" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA250" s="20"/>
+    </row>
+    <row r="251" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA251" s="20"/>
+    </row>
+    <row r="252" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA252" s="20"/>
+    </row>
+    <row r="253" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA253" s="20"/>
+    </row>
+    <row r="254" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA254" s="20"/>
+    </row>
+    <row r="255" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA255" s="20"/>
+    </row>
+    <row r="256" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA256" s="20"/>
+    </row>
+    <row r="257" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA257" s="20"/>
+    </row>
+    <row r="258" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA258" s="20"/>
+    </row>
+    <row r="259" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA259" s="20"/>
+    </row>
+    <row r="260" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA260" s="20"/>
+    </row>
+    <row r="261" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA261" s="20"/>
+    </row>
+    <row r="262" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA262" s="20"/>
+    </row>
+    <row r="263" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA263" s="20"/>
+    </row>
+    <row r="264" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA264" s="20"/>
+    </row>
+    <row r="265" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA265" s="20"/>
+    </row>
+    <row r="266" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA266" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="267" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA267" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="268" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA268" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="269" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA269" s="20"/>
+    </row>
+    <row r="270" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA270" s="20"/>
+    </row>
+    <row r="271" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA271" s="20"/>
+    </row>
+    <row r="272" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA272" s="20"/>
+    </row>
+    <row r="273" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA273" s="20"/>
+    </row>
+    <row r="274" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA274" s="20"/>
+    </row>
+    <row r="275" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA275" s="20"/>
+    </row>
+    <row r="276" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA276" s="20"/>
+    </row>
+    <row r="277" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA277" s="20"/>
+    </row>
+    <row r="278" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA278" s="20"/>
+    </row>
+    <row r="279" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA279" s="20"/>
+    </row>
+    <row r="280" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA280" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="281" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA281" s="20"/>
+    </row>
+    <row r="282" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA282" s="20"/>
+    </row>
+    <row r="283" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA283" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="AG34" s="18"/>
-    </row>
-    <row r="35" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG35" s="18"/>
-    </row>
-    <row r="36" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG36" s="18"/>
-    </row>
-    <row r="37" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG37" s="18"/>
-    </row>
-    <row r="38" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG38" s="18"/>
-    </row>
-    <row r="39" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG39" s="18"/>
-    </row>
-    <row r="40" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG40" s="18"/>
-    </row>
-    <row r="41" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG41" s="18"/>
-    </row>
-    <row r="42" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG42" s="18"/>
-    </row>
-    <row r="43" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG43" s="18"/>
-    </row>
-    <row r="44" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG44" s="18"/>
-    </row>
-    <row r="45" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG45" s="18"/>
-    </row>
-    <row r="46" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG46" s="18"/>
-    </row>
-    <row r="47" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG47" s="18"/>
-    </row>
-    <row r="48" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG48" s="18"/>
-    </row>
-    <row r="49" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG49" s="18"/>
-    </row>
-    <row r="50" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG50" s="18"/>
-    </row>
-    <row r="51" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG51" s="18"/>
-    </row>
-    <row r="52" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG52" s="18"/>
-    </row>
-    <row r="53" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG53" s="18"/>
-    </row>
-    <row r="54" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG54" s="18"/>
-    </row>
-    <row r="55" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG55" s="18"/>
-    </row>
-    <row r="56" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG56" s="18"/>
-    </row>
-    <row r="57" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="s">
+    </row>
+    <row r="284" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA284" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="285" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA285" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="286" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA286" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="287" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA287" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="288" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA288" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="289" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA289" s="22"/>
+    </row>
+    <row r="290" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA290" s="22"/>
+    </row>
+    <row r="291" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA291" s="20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="292" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA292" s="22"/>
+    </row>
+    <row r="293" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA293" s="22"/>
+    </row>
+    <row r="294" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA294" s="22"/>
+    </row>
+    <row r="295" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA295" s="22"/>
+    </row>
+    <row r="296" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA296" s="22"/>
+    </row>
+    <row r="297" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA297" s="22"/>
+    </row>
+    <row r="298" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="AG57" s="18"/>
-    </row>
-    <row r="58" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
+      <c r="AA298" s="22"/>
+    </row>
+    <row r="299" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="AG58" s="18"/>
-    </row>
-    <row r="59" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG59" s="18"/>
-    </row>
-    <row r="60" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG60" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="61" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG61" s="18"/>
-    </row>
-    <row r="62" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG62" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="15" t="s">
+      <c r="AA299" s="22"/>
+    </row>
+    <row r="300" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA300" s="20"/>
+    </row>
+    <row r="301" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA301" s="20"/>
+    </row>
+    <row r="302" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA302" s="20"/>
+    </row>
+    <row r="303" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA303" s="20"/>
+    </row>
+    <row r="304" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AG63" s="18"/>
-    </row>
-    <row r="64" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG64" s="18"/>
-    </row>
-    <row r="65" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="16"/>
-      <c r="AC65" s="16"/>
-      <c r="AD65" s="16"/>
-      <c r="AE65" s="16"/>
-      <c r="AG65" s="18"/>
-    </row>
-    <row r="66" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="16"/>
-      <c r="AB66" s="16"/>
-      <c r="AC66" s="16"/>
-      <c r="AD66" s="16"/>
-      <c r="AE66" s="16"/>
-      <c r="AG66" s="18"/>
-    </row>
-    <row r="67" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="16"/>
-      <c r="Z67" s="16"/>
-      <c r="AA67" s="16"/>
-      <c r="AB67" s="16"/>
-      <c r="AC67" s="16"/>
-      <c r="AD67" s="16"/>
-      <c r="AE67" s="16"/>
-      <c r="AG67" s="18"/>
-    </row>
-    <row r="68" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="16"/>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="16"/>
-      <c r="AB68" s="16"/>
-      <c r="AC68" s="16"/>
-      <c r="AD68" s="16"/>
-      <c r="AE68" s="16"/>
-      <c r="AG68" s="18"/>
-    </row>
-    <row r="69" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="16"/>
-      <c r="AB69" s="16"/>
-      <c r="AC69" s="16"/>
-      <c r="AD69" s="16"/>
-      <c r="AE69" s="16"/>
-      <c r="AG69" s="18"/>
-    </row>
-    <row r="70" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="16"/>
-      <c r="Z70" s="16"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="16"/>
-      <c r="AD70" s="16"/>
-      <c r="AE70" s="16"/>
-      <c r="AG70" s="18"/>
-    </row>
-    <row r="71" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="16"/>
-      <c r="AE71" s="16"/>
-      <c r="AG71" s="18"/>
-    </row>
-    <row r="72" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="16"/>
-      <c r="AE72" s="16"/>
-      <c r="AG72" s="18"/>
-    </row>
-    <row r="73" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AA73" s="16"/>
-      <c r="AB73" s="16"/>
-      <c r="AC73" s="16"/>
-      <c r="AD73" s="16"/>
-      <c r="AE73" s="16"/>
-      <c r="AG73" s="18"/>
-    </row>
-    <row r="74" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="16"/>
-      <c r="Y74" s="16"/>
-      <c r="Z74" s="16"/>
-      <c r="AA74" s="16"/>
-      <c r="AB74" s="16"/>
-      <c r="AC74" s="16"/>
-      <c r="AD74" s="16"/>
-      <c r="AE74" s="16"/>
-      <c r="AG74" s="18"/>
-    </row>
-    <row r="75" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="16"/>
-      <c r="AG75" s="18"/>
-    </row>
-    <row r="76" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" s="16"/>
-      <c r="AG76" s="18"/>
-    </row>
-    <row r="77" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG77" s="18"/>
-    </row>
-    <row r="78" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG78" s="18"/>
-    </row>
-    <row r="79" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG79" s="18"/>
-    </row>
-    <row r="80" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG80" s="18"/>
-    </row>
-    <row r="81" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG81" s="18"/>
-    </row>
-    <row r="82" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG82" s="18"/>
-    </row>
-    <row r="83" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG83" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG84" s="18"/>
-    </row>
-    <row r="85" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG85" s="18"/>
-    </row>
-    <row r="86" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG86" s="18"/>
-    </row>
-    <row r="87" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG87" s="18"/>
-    </row>
-    <row r="88" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG88" s="18"/>
-    </row>
-    <row r="89" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG89" s="18"/>
-    </row>
-    <row r="90" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG90" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG91" s="18"/>
-    </row>
-    <row r="92" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG92" s="18"/>
-    </row>
-    <row r="93" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG93" s="18"/>
-    </row>
-    <row r="94" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG94" s="18"/>
-    </row>
-    <row r="95" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG95" s="18"/>
-    </row>
-    <row r="96" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG96" s="18"/>
-    </row>
-    <row r="97" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG97" s="18"/>
-    </row>
-    <row r="98" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG98" s="18"/>
-    </row>
-    <row r="99" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG99" s="18"/>
-    </row>
-    <row r="100" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG100" s="18"/>
-    </row>
-    <row r="101" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG101" s="18"/>
-    </row>
-    <row r="102" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG102" s="18"/>
-    </row>
-    <row r="103" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG103" s="18"/>
-    </row>
-    <row r="104" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG104" s="18"/>
-    </row>
-    <row r="105" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG105" s="18"/>
-    </row>
-    <row r="106" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG106" s="18"/>
-    </row>
-    <row r="107" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG107" s="18"/>
-    </row>
-    <row r="108" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG108" s="18"/>
-    </row>
-    <row r="109" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG109" s="18"/>
-    </row>
-    <row r="110" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG110" s="18"/>
-    </row>
-    <row r="111" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG111" s="18"/>
-    </row>
-    <row r="112" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG112" s="18"/>
-    </row>
-    <row r="113" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG113" s="18"/>
-    </row>
-    <row r="114" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG114" s="18"/>
-    </row>
-    <row r="115" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="AG115" s="18"/>
-    </row>
-    <row r="116" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG116" s="18"/>
-    </row>
-    <row r="117" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG117" s="18"/>
-    </row>
-    <row r="118" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG118" s="18"/>
-    </row>
-    <row r="119" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG119" s="18"/>
-    </row>
-    <row r="120" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG120" s="18"/>
-    </row>
-    <row r="121" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG121" s="18"/>
-    </row>
-    <row r="122" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG122" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG123" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="124" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG124" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG125" s="18"/>
-    </row>
-    <row r="126" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG126" s="18"/>
-    </row>
-    <row r="127" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG127" s="18"/>
-    </row>
-    <row r="128" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG128" s="18"/>
-    </row>
-    <row r="129" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG129" s="18"/>
-    </row>
-    <row r="130" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG130" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG131" s="18"/>
-    </row>
-    <row r="132" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG132" s="18"/>
-    </row>
-    <row r="133" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG133" s="18"/>
-    </row>
-    <row r="134" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG134" s="18"/>
-    </row>
-    <row r="135" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG135" s="18"/>
-    </row>
-    <row r="136" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG136" s="18"/>
-    </row>
-    <row r="137" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG137" s="18"/>
-    </row>
-    <row r="138" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG138" s="18"/>
-    </row>
-    <row r="139" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG139" s="18"/>
-    </row>
-    <row r="140" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG140" s="18"/>
-    </row>
-    <row r="141" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG141" s="18"/>
-    </row>
-    <row r="142" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG142" s="18"/>
-    </row>
-    <row r="143" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG143" s="18"/>
-    </row>
-    <row r="144" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG144" s="18"/>
-    </row>
-    <row r="145" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG145" s="18"/>
-    </row>
-    <row r="146" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG146" s="18"/>
-    </row>
-    <row r="147" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="15" t="s">
+      <c r="AA304" s="22"/>
+    </row>
+    <row r="305" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="AG147" s="18"/>
-    </row>
-    <row r="148" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="AG148" s="18"/>
-    </row>
-    <row r="149" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG149" s="18"/>
-    </row>
-    <row r="150" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG150" s="19"/>
-    </row>
-    <row r="151" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG151" s="19"/>
-    </row>
-    <row r="152" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG152" s="19"/>
-    </row>
-    <row r="153" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG153" s="19"/>
-    </row>
-    <row r="154" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG154" s="19"/>
-    </row>
-    <row r="155" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG155" s="19"/>
-    </row>
-    <row r="156" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG156" s="18"/>
-    </row>
-    <row r="157" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="AG157" s="19"/>
-    </row>
-    <row r="158" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG158" s="19"/>
-    </row>
-    <row r="159" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG159" s="19"/>
-    </row>
-    <row r="160" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG160" s="19"/>
-    </row>
-    <row r="161" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG161" s="19"/>
-    </row>
-    <row r="162" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG162" s="19"/>
-    </row>
-    <row r="163" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG163" s="19"/>
-    </row>
-    <row r="164" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG164" s="19"/>
-    </row>
-    <row r="165" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG165" s="19"/>
-    </row>
-    <row r="166" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG166" s="19"/>
-    </row>
-    <row r="167" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG167" s="19"/>
-    </row>
-    <row r="168" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG168" s="19"/>
-    </row>
-    <row r="169" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG169" s="19"/>
-    </row>
-    <row r="170" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG170" s="19"/>
-    </row>
-    <row r="171" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG171" s="19"/>
-    </row>
-    <row r="172" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG172" s="19"/>
-    </row>
-    <row r="173" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG173" s="19"/>
-    </row>
-    <row r="174" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG174" s="19"/>
-    </row>
-    <row r="175" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG175" s="19"/>
-    </row>
-    <row r="176" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG176" s="19"/>
-    </row>
-    <row r="177" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG177" s="18"/>
-    </row>
-    <row r="178" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG178" s="18"/>
-    </row>
-    <row r="179" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG179" s="18"/>
-    </row>
-    <row r="180" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG180" s="18"/>
-    </row>
-    <row r="181" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG181" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="182" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG182" s="18"/>
-    </row>
-    <row r="183" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="AG183" s="18"/>
-    </row>
-    <row r="184" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG184" s="18"/>
-    </row>
-    <row r="185" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG185" s="18"/>
-    </row>
-    <row r="186" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG186" s="18"/>
-    </row>
-    <row r="187" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG187" s="18"/>
-    </row>
-    <row r="188" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG188" s="18"/>
-    </row>
-    <row r="189" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="AG189" s="18"/>
-    </row>
-    <row r="190" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="AG190" s="18"/>
-    </row>
-    <row r="191" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG191" s="18"/>
-    </row>
-    <row r="192" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG192" s="18"/>
-    </row>
-    <row r="193" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG193" s="18"/>
-    </row>
-    <row r="194" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG194" s="18"/>
-    </row>
-    <row r="195" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG195" s="18"/>
-    </row>
-    <row r="196" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG196" s="18"/>
-    </row>
-    <row r="197" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG197" s="18"/>
-    </row>
-    <row r="198" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG198" s="18"/>
-    </row>
-    <row r="199" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG199" s="18"/>
-    </row>
-    <row r="200" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG200" s="18"/>
-    </row>
-    <row r="201" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG201" s="18"/>
-    </row>
-    <row r="202" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG202" s="18"/>
-    </row>
-    <row r="203" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG203" s="18"/>
-    </row>
-    <row r="204" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG204" s="18"/>
-    </row>
-    <row r="205" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG205" s="18"/>
-    </row>
-    <row r="206" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG206" s="18"/>
-    </row>
-    <row r="207" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="AG207" s="18"/>
-    </row>
-    <row r="208" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG208" s="18"/>
-    </row>
-    <row r="209" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="AG209" s="18"/>
-    </row>
-    <row r="210" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG210" s="18"/>
-    </row>
-    <row r="211" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG211" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="212" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG212" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="213" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG213" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="214" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG214" s="18"/>
-    </row>
-    <row r="215" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG215" s="18"/>
-    </row>
-    <row r="216" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG216" s="18"/>
-    </row>
-    <row r="217" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG217" s="18"/>
-    </row>
-    <row r="218" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG218" s="18"/>
-    </row>
-    <row r="219" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="AG219" s="18"/>
-    </row>
-    <row r="220" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="AG220" s="18"/>
-    </row>
-    <row r="221" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="AG221" s="18"/>
-    </row>
-    <row r="222" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG222" s="18"/>
-    </row>
-    <row r="223" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG223" s="18"/>
-    </row>
-    <row r="224" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG224" s="18"/>
-    </row>
-    <row r="225" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG225" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="226" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG226" s="18"/>
-    </row>
-    <row r="227" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="AG227" s="18"/>
-    </row>
-    <row r="228" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="AG228" s="18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="229" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG229" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="230" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG230" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="231" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG231" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="232" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG232" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="233" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG233" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="234" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="15" t="s">
+      <c r="AA305" s="22"/>
+    </row>
+    <row r="306" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA306" s="22"/>
+    </row>
+    <row r="307" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA307" s="22"/>
+    </row>
+    <row r="308" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA308" s="22"/>
+    </row>
+    <row r="309" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B309" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA309" s="22"/>
+    </row>
+    <row r="310" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA310" s="22"/>
+    </row>
+    <row r="311" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA311" s="22"/>
+    </row>
+    <row r="312" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA312" s="22"/>
+    </row>
+    <row r="313" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AG234" s="18"/>
-    </row>
-    <row r="235" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="AG235" s="19"/>
-    </row>
-    <row r="236" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG236" s="19"/>
-    </row>
-    <row r="237" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG237" s="19"/>
-    </row>
-    <row r="238" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG238" s="19"/>
-    </row>
-    <row r="239" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG239" s="19"/>
-    </row>
-    <row r="240" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG240" s="19"/>
-    </row>
-    <row r="241" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="AG241" s="19"/>
-    </row>
-    <row r="242" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG242" s="19"/>
-    </row>
-    <row r="243" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG243" s="18"/>
-    </row>
-    <row r="244" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="AG244" s="18"/>
-    </row>
-    <row r="245" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG245" s="18"/>
-    </row>
-    <row r="246" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG246" s="18"/>
-    </row>
-    <row r="247" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG247" s="18"/>
-    </row>
-    <row r="248" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG248" s="19"/>
-    </row>
-    <row r="249" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG249" s="19"/>
-    </row>
-    <row r="250" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="AG250" s="19"/>
-    </row>
-    <row r="251" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG251" s="19"/>
-    </row>
-    <row r="252" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG252" s="19"/>
-    </row>
-    <row r="253" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="AG253" s="19"/>
-    </row>
-    <row r="254" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="AG254" s="19"/>
-    </row>
-    <row r="255" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="AG255" s="19"/>
-    </row>
-    <row r="256" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG256" s="19"/>
-    </row>
-    <row r="257" spans="2:33" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="17" t="s">
+      <c r="AA313" s="22"/>
+    </row>
+    <row r="314" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="AG257" s="19"/>
+      <c r="AA314" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PCB/02 Plans & Actuals/2.2_WBS & Sprint plan/SeeNowDo_Task_assignment_20150913.xlsx
+++ b/PCB/02 Plans & Actuals/2.2_WBS & Sprint plan/SeeNowDo_Task_assignment_20150913.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="140" windowWidth="25360" windowHeight="14640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task List" sheetId="1" r:id="rId1"/>
     <sheet name="Scoure Code" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task List'!$F$2:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Scoure Code'!$AA$2:$AA$313</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task List'!$F$2:$H$48</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="355">
   <si>
     <t>User Story</t>
   </si>
@@ -728,9 +734,6 @@
     <t>│  │      successstorymain.html</t>
   </si>
   <si>
-    <t>│  │      test.html</t>
-  </si>
-  <si>
     <t>│  └─Views</t>
   </si>
   <si>
@@ -1073,13 +1076,22 @@
     <t>│  │      │  …</t>
   </si>
   <si>
-    <t>Shawn, Kaii</t>
-  </si>
-  <si>
     <t>│  │      │ …</t>
   </si>
   <si>
     <t>│  ├─ …</t>
+  </si>
+  <si>
+    <t>Miranda, Lulu</t>
+  </si>
+  <si>
+    <t>Likai</t>
+  </si>
+  <si>
+    <t>Kaii, Shawn</t>
+  </si>
+  <si>
+    <t>LuLu</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1102,7 @@
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,6 +1136,22 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1208,7 +1236,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1225,8 +1253,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1271,7 +1355,63 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="57">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1571,24 +1711,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H47"/>
+  <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1"/>
-    <col min="2" max="2" width="6.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="2.7109375" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1"/>
+    <col min="2" max="2" width="6.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="29.25" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1611,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -1629,27 +1771,27 @@
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="11">
@@ -1659,38 +1801,38 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>10</v>
@@ -1700,227 +1842,227 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
+    <row r="8" spans="2:8">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="11">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D13" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+    <row r="16" spans="2:8">
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
-        <v>5</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>28</v>
-      </c>
+    <row r="17" spans="2:8">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="7">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D18" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11">
@@ -1930,38 +2072,38 @@
         <v>33</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>42</v>
@@ -1971,139 +2113,139 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="15">
+      <c r="D25" s="11">
+        <v>57</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="15">
         <v>58</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="16">
+      <c r="G26" s="6"/>
+      <c r="H26" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
+    <row r="27" spans="2:8">
+      <c r="B27" s="5">
         <v>6</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="11">
+      <c r="C27" s="6"/>
+      <c r="D27" s="11">
         <v>61</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="11">
-        <v>62</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="11">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D30" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>41</v>
@@ -2113,7 +2255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11">
@@ -2123,31 +2265,31 @@
         <v>44</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11">
@@ -2157,110 +2299,110 @@
         <v>45</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11">
+        <v>23</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+    <row r="38" spans="2:8">
+      <c r="B38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D38" s="17">
         <v>1</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="18">
+      <c r="G38" s="10"/>
+      <c r="H38" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="11">
-        <v>2</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>40</v>
@@ -2270,31 +2412,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8">
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>54</v>
@@ -2304,14 +2446,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8">
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>54</v>
@@ -2321,14 +2463,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>54</v>
@@ -2338,14 +2480,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>54</v>
@@ -2355,45 +2497,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
       <c r="D46" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>62</v>
@@ -2403,114 +2545,142 @@
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11">
+        <v>98</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="13">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F2:H47"/>
+  <autoFilter ref="F2:H48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA314"/>
+  <dimension ref="B1:AA313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="2.7109375" style="19"/>
+    <col min="1" max="16384" width="2.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B1" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="22"/>
-    </row>
-    <row r="3" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
-        <v>65</v>
-      </c>
       <c r="AA3" s="22"/>
     </row>
-    <row r="4" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>66</v>
       </c>
       <c r="AA4" s="22"/>
     </row>
-    <row r="5" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B5" s="21" t="s">
         <v>67</v>
       </c>
       <c r="AA5" s="22"/>
     </row>
-    <row r="6" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B6" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AA6" s="22"/>
     </row>
-    <row r="7" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B7" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AA7" s="22"/>
     </row>
-    <row r="8" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B8" s="21" t="s">
         <v>70</v>
       </c>
       <c r="AA8" s="22"/>
     </row>
-    <row r="9" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B9" s="21" t="s">
         <v>71</v>
       </c>
       <c r="AA9" s="22"/>
     </row>
-    <row r="10" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B10" s="21" t="s">
         <v>72</v>
       </c>
       <c r="AA10" s="22"/>
     </row>
-    <row r="11" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B11" s="21" t="s">
         <v>73</v>
       </c>
       <c r="AA11" s="22"/>
     </row>
-    <row r="12" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B12" s="21" t="s">
         <v>74</v>
       </c>
       <c r="AA12" s="22"/>
     </row>
-    <row r="13" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B13" s="21" t="s">
         <v>75</v>
       </c>
       <c r="AA13" s="22"/>
     </row>
-    <row r="14" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B14" s="21" t="s">
         <v>76</v>
       </c>
       <c r="AA14" s="22"/>
     </row>
-    <row r="15" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B15" s="21" t="s">
         <v>77</v>
       </c>
       <c r="AA15" s="22"/>
     </row>
-    <row r="16" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:27" ht="12.75" customHeight="1">
       <c r="B16" s="19" t="s">
         <v>78</v>
       </c>
@@ -2518,13 +2688,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B17" s="21" t="s">
         <v>79</v>
       </c>
       <c r="AA17" s="22"/>
     </row>
-    <row r="18" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" ht="12.75" customHeight="1">
       <c r="B18" s="19" t="s">
         <v>80</v>
       </c>
@@ -2532,55 +2702,55 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B19" s="21" t="s">
         <v>81</v>
       </c>
       <c r="AA19" s="22"/>
     </row>
-    <row r="20" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B20" s="21" t="s">
         <v>82</v>
       </c>
       <c r="AA20" s="22"/>
     </row>
-    <row r="21" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="21" t="s">
         <v>83</v>
       </c>
       <c r="AA21" s="22"/>
     </row>
-    <row r="22" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="21" t="s">
         <v>84</v>
       </c>
       <c r="AA22" s="22"/>
     </row>
-    <row r="23" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="21" t="s">
         <v>85</v>
       </c>
       <c r="AA23" s="22"/>
     </row>
-    <row r="24" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B24" s="21" t="s">
         <v>86</v>
       </c>
       <c r="AA24" s="22"/>
     </row>
-    <row r="25" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B25" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AA25" s="22"/>
     </row>
-    <row r="26" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B26" s="21" t="s">
         <v>87</v>
       </c>
       <c r="AA26" s="22"/>
     </row>
-    <row r="27" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" ht="12.75" customHeight="1">
       <c r="B27" s="19" t="s">
         <v>88</v>
       </c>
@@ -2588,213 +2758,237 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" ht="12.75" customHeight="1">
       <c r="B28" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AA28" s="20"/>
-    </row>
-    <row r="29" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA28" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="12.75" customHeight="1">
       <c r="B29" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AA29" s="20"/>
-    </row>
-    <row r="30" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA29" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" ht="12.75" customHeight="1">
       <c r="B30" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AA30" s="20"/>
-    </row>
-    <row r="31" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA30" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="12.75" customHeight="1">
       <c r="B31" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AA31" s="20"/>
-    </row>
-    <row r="32" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA31" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B32" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AA32" s="22"/>
     </row>
-    <row r="33" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B33" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AA33" s="22"/>
     </row>
-    <row r="34" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B34" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AA34" s="22"/>
     </row>
-    <row r="35" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B35" s="21" t="s">
         <v>95</v>
       </c>
       <c r="AA35" s="22"/>
     </row>
-    <row r="36" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B36" s="21" t="s">
         <v>96</v>
       </c>
       <c r="AA36" s="22"/>
     </row>
-    <row r="37" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B37" s="21" t="s">
         <v>97</v>
       </c>
       <c r="AA37" s="22"/>
     </row>
-    <row r="38" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B38" s="21" t="s">
         <v>98</v>
       </c>
       <c r="AA38" s="22"/>
     </row>
-    <row r="39" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B39" s="21" t="s">
         <v>99</v>
       </c>
       <c r="AA39" s="22"/>
     </row>
-    <row r="40" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B40" s="21" t="s">
         <v>100</v>
       </c>
       <c r="AA40" s="22"/>
     </row>
-    <row r="41" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B41" s="21" t="s">
         <v>101</v>
       </c>
       <c r="AA41" s="22"/>
     </row>
-    <row r="42" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:27" ht="12.75" customHeight="1">
       <c r="B42" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AA42" s="20"/>
-    </row>
-    <row r="43" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA42" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" ht="12.75" customHeight="1">
       <c r="B43" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="AA43" s="20"/>
-    </row>
-    <row r="44" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA43" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" ht="12.75" customHeight="1">
       <c r="B44" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="AA44" s="20"/>
-    </row>
-    <row r="45" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA44" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" ht="12.75" customHeight="1">
       <c r="B45" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="AA45" s="20"/>
-    </row>
-    <row r="46" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA45" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B46" s="21" t="s">
         <v>94</v>
       </c>
       <c r="AA46" s="22"/>
     </row>
-    <row r="47" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B47" s="21" t="s">
         <v>106</v>
       </c>
       <c r="AA47" s="22"/>
     </row>
-    <row r="48" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B48" s="21" t="s">
         <v>107</v>
       </c>
       <c r="AA48" s="22"/>
     </row>
-    <row r="49" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B49" s="21" t="s">
         <v>108</v>
       </c>
       <c r="AA49" s="22"/>
     </row>
-    <row r="50" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B50" s="21" t="s">
         <v>109</v>
       </c>
       <c r="AA50" s="22"/>
     </row>
-    <row r="51" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B51" s="21" t="s">
         <v>110</v>
       </c>
       <c r="AA51" s="22"/>
     </row>
-    <row r="52" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B52" s="21" t="s">
         <v>111</v>
       </c>
       <c r="AA52" s="22"/>
     </row>
-    <row r="53" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B53" s="21" t="s">
         <v>112</v>
       </c>
       <c r="AA53" s="22"/>
     </row>
-    <row r="54" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B54" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AA54" s="22"/>
     </row>
-    <row r="55" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:27" ht="12.75" customHeight="1">
       <c r="B55" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AA55" s="20"/>
-    </row>
-    <row r="56" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA55" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" ht="12.75" customHeight="1">
       <c r="B56" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AA56" s="20"/>
-    </row>
-    <row r="57" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA56" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B57" s="21" t="s">
         <v>116</v>
       </c>
       <c r="AA57" s="22"/>
     </row>
-    <row r="58" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B58" s="21" t="s">
         <v>117</v>
       </c>
       <c r="AA58" s="22"/>
     </row>
-    <row r="59" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:27" ht="12.75" customHeight="1">
       <c r="B59" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AA59" s="20"/>
-    </row>
-    <row r="60" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA59" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27" ht="12.75" customHeight="1">
       <c r="B60" s="19" t="s">
         <v>119</v>
       </c>
       <c r="AA60" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="61" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" ht="12.75" customHeight="1">
       <c r="B61" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AA61" s="20"/>
-    </row>
-    <row r="62" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA61" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27" ht="12.75" customHeight="1">
       <c r="B62" s="19" t="s">
         <v>121</v>
       </c>
@@ -2802,445 +2996,451 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B63" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AA63" s="22"/>
     </row>
-    <row r="64" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B64" s="21" t="s">
         <v>122</v>
       </c>
       <c r="AA64" s="22"/>
     </row>
-    <row r="65" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B65" s="21" t="s">
         <v>123</v>
       </c>
       <c r="AA65" s="22"/>
     </row>
-    <row r="66" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B66" s="21" t="s">
         <v>124</v>
       </c>
       <c r="AA66" s="22"/>
     </row>
-    <row r="67" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B67" s="21" t="s">
         <v>125</v>
       </c>
       <c r="AA67" s="22"/>
     </row>
-    <row r="68" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B68" s="21" t="s">
         <v>126</v>
       </c>
       <c r="AA68" s="22"/>
     </row>
-    <row r="69" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B69" s="21" t="s">
         <v>127</v>
       </c>
       <c r="AA69" s="22"/>
     </row>
-    <row r="70" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B70" s="21" t="s">
         <v>128</v>
       </c>
       <c r="AA70" s="22"/>
     </row>
-    <row r="71" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B71" s="21" t="s">
         <v>129</v>
       </c>
       <c r="AA71" s="22"/>
     </row>
-    <row r="72" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B72" s="21" t="s">
         <v>130</v>
       </c>
       <c r="AA72" s="22"/>
     </row>
-    <row r="73" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B73" s="21" t="s">
         <v>131</v>
       </c>
       <c r="AA73" s="22"/>
     </row>
-    <row r="74" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B74" s="21" t="s">
         <v>132</v>
       </c>
       <c r="AA74" s="22"/>
     </row>
-    <row r="75" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B75" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AA75" s="22"/>
     </row>
-    <row r="76" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B76" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AA76" s="22"/>
     </row>
-    <row r="77" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B77" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA77" s="22"/>
+    </row>
+    <row r="78" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B78" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="AA77" s="22"/>
-    </row>
-    <row r="78" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="21" t="s">
+      <c r="AA78" s="22"/>
+    </row>
+    <row r="79" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B79" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="AA78" s="22"/>
-    </row>
-    <row r="79" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="21" t="s">
+      <c r="AA79" s="22"/>
+    </row>
+    <row r="80" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B80" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AA79" s="22"/>
-    </row>
-    <row r="80" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="21" t="s">
+      <c r="AA80" s="22"/>
+    </row>
+    <row r="81" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B81" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="AA80" s="22"/>
-    </row>
-    <row r="81" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="21" t="s">
+      <c r="AA81" s="22"/>
+    </row>
+    <row r="82" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B82" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="AA81" s="22"/>
-    </row>
-    <row r="82" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="21" t="s">
+      <c r="AA82" s="22"/>
+    </row>
+    <row r="83" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B83" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="AA82" s="22"/>
-    </row>
-    <row r="83" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="21" t="s">
+      <c r="AA83" s="22"/>
+    </row>
+    <row r="84" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B84" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="AA83" s="22"/>
-    </row>
-    <row r="84" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="21" t="s">
+      <c r="AA84" s="22"/>
+    </row>
+    <row r="85" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B85" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="AA84" s="22"/>
-    </row>
-    <row r="85" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="21" t="s">
+      <c r="AA85" s="22"/>
+    </row>
+    <row r="86" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B86" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="AA85" s="22"/>
-    </row>
-    <row r="86" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="21" t="s">
+      <c r="AA86" s="22"/>
+    </row>
+    <row r="87" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B87" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="AA86" s="22"/>
-    </row>
-    <row r="87" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="21" t="s">
+      <c r="AA87" s="22"/>
+    </row>
+    <row r="88" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B88" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="AA87" s="22"/>
-    </row>
-    <row r="88" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="21" t="s">
+      <c r="AA88" s="22"/>
+    </row>
+    <row r="89" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B89" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="AA88" s="22"/>
-    </row>
-    <row r="89" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="21" t="s">
+      <c r="AA89" s="22"/>
+    </row>
+    <row r="90" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B90" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="AA89" s="22"/>
-    </row>
-    <row r="90" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="21" t="s">
+      <c r="AA90" s="22"/>
+    </row>
+    <row r="91" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B91" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="AA90" s="22"/>
-    </row>
-    <row r="91" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="21" t="s">
+      <c r="AA91" s="22"/>
+    </row>
+    <row r="92" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B92" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="AA91" s="22"/>
-    </row>
-    <row r="92" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="21" t="s">
+      <c r="AA92" s="22"/>
+    </row>
+    <row r="93" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B93" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="AA92" s="22"/>
-    </row>
-    <row r="93" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="21" t="s">
+      <c r="AA93" s="22"/>
+    </row>
+    <row r="94" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B94" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="AA93" s="22"/>
-    </row>
-    <row r="94" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="21" t="s">
+      <c r="AA94" s="22"/>
+    </row>
+    <row r="95" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B95" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="AA94" s="22"/>
-    </row>
-    <row r="95" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="21" t="s">
+      <c r="AA95" s="22"/>
+    </row>
+    <row r="96" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B96" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="AA95" s="22"/>
-    </row>
-    <row r="96" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="21" t="s">
+      <c r="AA96" s="22"/>
+    </row>
+    <row r="97" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B97" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="AA96" s="22"/>
-    </row>
-    <row r="97" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="21" t="s">
+      <c r="AA97" s="22"/>
+    </row>
+    <row r="98" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B98" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="AA97" s="22"/>
-    </row>
-    <row r="98" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="21" t="s">
+      <c r="AA98" s="22"/>
+    </row>
+    <row r="99" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B99" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="AA98" s="22"/>
-    </row>
-    <row r="99" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="21" t="s">
+      <c r="AA99" s="22"/>
+    </row>
+    <row r="100" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B100" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="AA99" s="22"/>
-    </row>
-    <row r="100" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="21" t="s">
+      <c r="AA100" s="22"/>
+    </row>
+    <row r="101" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B101" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="AA100" s="22"/>
-    </row>
-    <row r="101" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="21" t="s">
+      <c r="AA101" s="22"/>
+    </row>
+    <row r="102" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B102" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="AA101" s="22"/>
-    </row>
-    <row r="102" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="21" t="s">
+      <c r="AA102" s="22"/>
+    </row>
+    <row r="103" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B103" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="AA102" s="22"/>
-    </row>
-    <row r="103" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="21" t="s">
+      <c r="AA103" s="22"/>
+    </row>
+    <row r="104" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B104" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="AA103" s="22"/>
-    </row>
-    <row r="104" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="21" t="s">
+      <c r="AA104" s="22"/>
+    </row>
+    <row r="105" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B105" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="AA104" s="22"/>
-    </row>
-    <row r="105" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="21" t="s">
+      <c r="AA105" s="22"/>
+    </row>
+    <row r="106" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B106" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="AA105" s="22"/>
-    </row>
-    <row r="106" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="21" t="s">
+      <c r="AA106" s="22"/>
+    </row>
+    <row r="107" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B107" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="AA106" s="22"/>
-    </row>
-    <row r="107" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="21" t="s">
+      <c r="AA107" s="22"/>
+    </row>
+    <row r="108" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B108" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="AA107" s="22"/>
-    </row>
-    <row r="108" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="21" t="s">
+      <c r="AA108" s="22"/>
+    </row>
+    <row r="109" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B109" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="AA108" s="22"/>
-    </row>
-    <row r="109" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="21" t="s">
+      <c r="AA109" s="22"/>
+    </row>
+    <row r="110" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B110" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="AA109" s="22"/>
-    </row>
-    <row r="110" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="21" t="s">
+      <c r="AA110" s="22"/>
+    </row>
+    <row r="111" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B111" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="AA110" s="22"/>
-    </row>
-    <row r="111" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="21" t="s">
+      <c r="AA111" s="22"/>
+    </row>
+    <row r="112" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B112" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="AA111" s="22"/>
-    </row>
-    <row r="112" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="21" t="s">
+      <c r="AA112" s="22"/>
+    </row>
+    <row r="113" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B113" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="AA112" s="22"/>
-    </row>
-    <row r="113" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="21" t="s">
+      <c r="AA113" s="22"/>
+    </row>
+    <row r="114" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B114" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="AA113" s="22"/>
-    </row>
-    <row r="114" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="21" t="s">
+      <c r="AA114" s="22"/>
+    </row>
+    <row r="115" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B115" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="AA114" s="22"/>
-    </row>
-    <row r="115" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="21" t="s">
+      <c r="AA115" s="22"/>
+    </row>
+    <row r="116" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B116" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="AA115" s="22"/>
-    </row>
-    <row r="116" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="21" t="s">
-        <v>332</v>
-      </c>
       <c r="AA116" s="22"/>
     </row>
-    <row r="117" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B117" s="21" t="s">
         <v>94</v>
       </c>
       <c r="AA117" s="22"/>
     </row>
-    <row r="118" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B118" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA118" s="22"/>
+    </row>
+    <row r="119" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B119" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="AA118" s="22"/>
-    </row>
-    <row r="119" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="21" t="s">
+      <c r="AA119" s="22"/>
+    </row>
+    <row r="120" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B120" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="AA119" s="22"/>
-    </row>
-    <row r="120" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="21" t="s">
+      <c r="AA120" s="22"/>
+    </row>
+    <row r="121" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B121" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="AA120" s="22"/>
-    </row>
-    <row r="121" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="21" t="s">
+      <c r="AA121" s="22"/>
+    </row>
+    <row r="122" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B122" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="AA121" s="22"/>
-    </row>
-    <row r="122" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="21" t="s">
+      <c r="AA122" s="22"/>
+    </row>
+    <row r="123" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B123" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="AA122" s="22"/>
-    </row>
-    <row r="123" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="21" t="s">
+      <c r="AA123" s="22"/>
+    </row>
+    <row r="124" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B124" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="AA123" s="22"/>
-    </row>
-    <row r="124" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="21" t="s">
+      <c r="AA124" s="22"/>
+    </row>
+    <row r="125" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B125" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="AA124" s="22"/>
-    </row>
-    <row r="125" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="21" t="s">
+      <c r="AA125" s="22"/>
+    </row>
+    <row r="126" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B126" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="AA125" s="22"/>
-    </row>
-    <row r="126" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="21" t="s">
+      <c r="AA126" s="22"/>
+    </row>
+    <row r="127" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B127" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="AA126" s="22"/>
-    </row>
-    <row r="127" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="21" t="s">
+      <c r="AA127" s="22"/>
+    </row>
+    <row r="128" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B128" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="AA127" s="22"/>
-    </row>
-    <row r="128" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="21" t="s">
+      <c r="AA128" s="22"/>
+    </row>
+    <row r="129" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B129" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="AA128" s="22"/>
-    </row>
-    <row r="129" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="21" t="s">
+      <c r="AA129" s="22"/>
+    </row>
+    <row r="130" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B130" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="AA129" s="22"/>
-    </row>
-    <row r="130" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="21" t="s">
-        <v>345</v>
-      </c>
       <c r="AA130" s="22"/>
     </row>
-    <row r="131" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B131" s="21" t="s">
         <v>95</v>
       </c>
       <c r="AA131" s="22"/>
     </row>
-    <row r="132" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B132" s="21" t="s">
         <v>134</v>
       </c>
       <c r="AA132" s="22"/>
     </row>
-    <row r="133" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:27" ht="12.75" customHeight="1">
       <c r="B133" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="AA133" s="20"/>
-    </row>
-    <row r="134" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA133" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="2:27" ht="12.75" customHeight="1">
       <c r="B134" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AA134" s="20"/>
-    </row>
-    <row r="135" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA134" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:27" ht="12.75" customHeight="1">
       <c r="B135" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="AA135" s="20"/>
-    </row>
-    <row r="136" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA135" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="2:27" ht="12.75" customHeight="1">
       <c r="B136" s="19" t="s">
         <v>138</v>
       </c>
@@ -3248,43 +3448,55 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:27" ht="12.75" customHeight="1">
       <c r="B137" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="AA137" s="20"/>
-    </row>
-    <row r="138" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA137" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="2:27" ht="12.75" customHeight="1">
       <c r="B138" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AA138" s="20"/>
-    </row>
-    <row r="139" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA138" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="2:27" ht="12.75" customHeight="1">
       <c r="B139" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="AA139" s="20"/>
-    </row>
-    <row r="140" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA139" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="2:27" ht="12.75" customHeight="1">
       <c r="B140" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="AA140" s="20"/>
-    </row>
-    <row r="141" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA140" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="2:27" ht="12.75" customHeight="1">
       <c r="B141" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="AA141" s="20"/>
-    </row>
-    <row r="142" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA141" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="2:27" ht="12.75" customHeight="1">
       <c r="B142" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="AA142" s="20"/>
-    </row>
-    <row r="143" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA142" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="143" spans="2:27" ht="12.75" customHeight="1">
       <c r="B143" s="19" t="s">
         <v>145</v>
       </c>
@@ -3292,193 +3504,255 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:27" ht="12.75" customHeight="1">
       <c r="B144" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="AA144" s="20"/>
-    </row>
-    <row r="145" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA144" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="145" spans="2:27" ht="12.75" customHeight="1">
       <c r="B145" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="AA145" s="20"/>
-    </row>
-    <row r="146" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA145" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="146" spans="2:27" ht="12.75" customHeight="1">
       <c r="B146" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AA146" s="20"/>
-    </row>
-    <row r="147" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA146" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="2:27" ht="12.75" customHeight="1">
       <c r="B147" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="AA147" s="20"/>
-    </row>
-    <row r="148" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA147" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="2:27" ht="12.75" customHeight="1">
       <c r="B148" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="AA148" s="20"/>
-    </row>
-    <row r="149" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA148" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="2:27" ht="12.75" customHeight="1">
       <c r="B149" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="AA149" s="20"/>
-    </row>
-    <row r="150" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA149" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="2:27" ht="12.75" customHeight="1">
       <c r="B150" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="AA150" s="20"/>
-    </row>
-    <row r="151" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA150" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="2:27" ht="12.75" customHeight="1">
       <c r="B151" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="AA151" s="20"/>
-    </row>
-    <row r="152" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA151" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="2:27" ht="12.75" customHeight="1">
       <c r="B152" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="AA152" s="20"/>
-    </row>
-    <row r="153" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA152" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="153" spans="2:27" ht="12.75" customHeight="1">
       <c r="B153" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="AA153" s="20"/>
-    </row>
-    <row r="154" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA153" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="2:27" ht="12.75" customHeight="1">
       <c r="B154" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="AA154" s="20"/>
-    </row>
-    <row r="155" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA154" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="155" spans="2:27" ht="12.75" customHeight="1">
       <c r="B155" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="AA155" s="20"/>
-    </row>
-    <row r="156" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA155" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="2:27" ht="12.75" customHeight="1">
       <c r="B156" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="AA156" s="20"/>
-    </row>
-    <row r="157" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA156" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157" spans="2:27" ht="12.75" customHeight="1">
       <c r="B157" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="AA157" s="20"/>
-    </row>
-    <row r="158" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA157" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158" spans="2:27" ht="12.75" customHeight="1">
       <c r="B158" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="AA158" s="20"/>
-    </row>
-    <row r="159" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA158" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="2:27" ht="12.75" customHeight="1">
       <c r="B159" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="AA159" s="20"/>
-    </row>
-    <row r="160" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA159" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="160" spans="2:27" ht="12.75" customHeight="1">
       <c r="B160" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="AA160" s="20"/>
-    </row>
-    <row r="161" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA160" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="2:27" ht="12.75" customHeight="1">
       <c r="B161" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="AA161" s="20"/>
-    </row>
-    <row r="162" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA161" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="2:27" ht="12.75" customHeight="1">
       <c r="B162" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AA162" s="20"/>
-    </row>
-    <row r="163" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA162" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="2:27" ht="12.75" customHeight="1">
       <c r="B163" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="AA163" s="20"/>
-    </row>
-    <row r="164" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA163" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164" spans="2:27" ht="12.75" customHeight="1">
       <c r="B164" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="AA164" s="20"/>
-    </row>
-    <row r="165" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA164" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165" spans="2:27" ht="12.75" customHeight="1">
       <c r="B165" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="AA165" s="20"/>
-    </row>
-    <row r="166" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA165" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="2:27" ht="12.75" customHeight="1">
       <c r="B166" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="AA166" s="20"/>
-    </row>
-    <row r="167" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA166" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="2:27" ht="12.75" customHeight="1">
       <c r="B167" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AA167" s="20"/>
-    </row>
-    <row r="168" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA167" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="2:27" ht="12.75" customHeight="1">
       <c r="B168" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="AA168" s="20"/>
-    </row>
-    <row r="169" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA168" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="2:27" ht="12.75" customHeight="1">
       <c r="B169" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="AA169" s="20"/>
-    </row>
-    <row r="170" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA169" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="2:27" ht="12.75" customHeight="1">
       <c r="B170" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="AA170" s="20"/>
-    </row>
-    <row r="171" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA170" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="2:27" ht="12.75" customHeight="1">
       <c r="B171" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="AA171" s="20"/>
-    </row>
-    <row r="172" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA171" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="2:27" ht="12.75" customHeight="1">
       <c r="B172" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="AA172" s="20"/>
-    </row>
-    <row r="173" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA172" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="2:27" ht="12.75" customHeight="1">
       <c r="B173" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="AA173" s="20"/>
-    </row>
-    <row r="174" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA173" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="174" spans="2:27" ht="12.75" customHeight="1">
       <c r="B174" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="AA174" s="20"/>
-    </row>
-    <row r="175" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA174" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="175" spans="2:27" ht="12.75" customHeight="1">
       <c r="B175" s="19" t="s">
         <v>177</v>
       </c>
@@ -3486,7 +3760,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:27" ht="12.75" customHeight="1">
       <c r="B176" s="19" t="s">
         <v>178</v>
       </c>
@@ -3494,7 +3768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:27" ht="12.75" customHeight="1">
       <c r="B177" s="19" t="s">
         <v>179</v>
       </c>
@@ -3502,37 +3776,47 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:27" ht="12.75" customHeight="1">
       <c r="B178" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="AA178" s="20"/>
-    </row>
-    <row r="179" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA178" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="179" spans="2:27" ht="12.75" customHeight="1">
       <c r="B179" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="AA179" s="20"/>
-    </row>
-    <row r="180" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA179" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="2:27" ht="12.75" customHeight="1">
       <c r="B180" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="AA180" s="20"/>
-    </row>
-    <row r="181" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA180" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="2:27" ht="12.75" customHeight="1">
       <c r="B181" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="AA181" s="20"/>
-    </row>
-    <row r="182" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA181" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="182" spans="2:27" ht="12.75" customHeight="1">
       <c r="B182" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="AA182" s="20"/>
-    </row>
-    <row r="183" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA182" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="183" spans="2:27" ht="12.75" customHeight="1">
       <c r="B183" s="19" t="s">
         <v>185</v>
       </c>
@@ -3540,635 +3824,731 @@
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:27" ht="12.75" customHeight="1">
       <c r="B184" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AA184" s="20"/>
-    </row>
-    <row r="185" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA184" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185" spans="2:27" ht="12.75" customHeight="1">
       <c r="B185" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="AA185" s="20"/>
-    </row>
-    <row r="186" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA185" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="186" spans="2:27" ht="12.75" customHeight="1">
       <c r="B186" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="AA186" s="20"/>
-    </row>
-    <row r="187" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA186" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="187" spans="2:27" ht="12.75" customHeight="1">
       <c r="B187" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="AA187" s="20"/>
-    </row>
-    <row r="188" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA187" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="188" spans="2:27" ht="12.75" customHeight="1">
       <c r="B188" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="AA188" s="20"/>
-    </row>
-    <row r="189" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA188" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="189" spans="2:27" ht="12.75" customHeight="1">
       <c r="B189" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="AA189" s="20"/>
-    </row>
-    <row r="190" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA189" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="2:27" ht="12.75" customHeight="1">
       <c r="B190" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="AA190" s="20"/>
-    </row>
-    <row r="191" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA190" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="191" spans="2:27" ht="12.75" customHeight="1">
       <c r="B191" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AA191" s="20"/>
-    </row>
-    <row r="192" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA191" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192" spans="2:27" ht="12.75" customHeight="1">
       <c r="B192" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AA192" s="20"/>
-    </row>
-    <row r="193" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA192" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="193" spans="2:27" ht="12.75" customHeight="1">
       <c r="B193" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="AA193" s="20"/>
-    </row>
-    <row r="194" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA193" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="194" spans="2:27" ht="12.75" customHeight="1">
       <c r="B194" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="AA194" s="20"/>
-    </row>
-    <row r="195" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA194" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="195" spans="2:27" ht="12.75" customHeight="1">
       <c r="B195" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="AA195" s="20"/>
-    </row>
-    <row r="196" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA195" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="196" spans="2:27" ht="12.75" customHeight="1">
       <c r="B196" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="AA196" s="20"/>
-    </row>
-    <row r="197" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA196" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="197" spans="2:27" ht="12.75" customHeight="1">
       <c r="B197" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="AA197" s="20"/>
-    </row>
-    <row r="198" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA197" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="198" spans="2:27" ht="12.75" customHeight="1">
       <c r="B198" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="AA198" s="20"/>
-    </row>
-    <row r="199" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA198" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="199" spans="2:27" ht="12.75" customHeight="1">
       <c r="B199" s="19" t="s">
         <v>69</v>
       </c>
       <c r="AA199" s="20"/>
     </row>
-    <row r="200" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B200" s="21" t="s">
         <v>201</v>
       </c>
       <c r="AA200" s="22"/>
     </row>
-    <row r="201" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B201" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA201" s="22"/>
     </row>
-    <row r="202" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B202" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA202" s="22"/>
     </row>
-    <row r="203" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B203" s="21" t="s">
         <v>116</v>
       </c>
       <c r="AA203" s="22"/>
     </row>
-    <row r="204" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B204" s="21" t="s">
         <v>202</v>
       </c>
       <c r="AA204" s="22"/>
     </row>
-    <row r="205" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B205" s="21" t="s">
         <v>203</v>
       </c>
       <c r="AA205" s="22"/>
     </row>
-    <row r="206" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B206" s="21" t="s">
         <v>94</v>
       </c>
       <c r="AA206" s="22"/>
     </row>
-    <row r="207" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B207" s="21" t="s">
         <v>204</v>
       </c>
       <c r="AA207" s="22"/>
     </row>
-    <row r="208" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B208" s="21" t="s">
         <v>205</v>
       </c>
       <c r="AA208" s="22"/>
     </row>
-    <row r="209" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B209" s="21" t="s">
         <v>206</v>
       </c>
       <c r="AA209" s="22"/>
     </row>
-    <row r="210" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B210" s="21" t="s">
         <v>95</v>
       </c>
       <c r="AA210" s="22"/>
     </row>
-    <row r="211" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B211" s="21" t="s">
         <v>207</v>
       </c>
       <c r="AA211" s="22"/>
     </row>
-    <row r="212" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B212" s="21" t="s">
         <v>208</v>
       </c>
       <c r="AA212" s="22"/>
     </row>
-    <row r="213" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B213" s="21" t="s">
         <v>209</v>
       </c>
       <c r="AA213" s="22"/>
     </row>
-    <row r="214" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B214" s="21" t="s">
         <v>210</v>
       </c>
       <c r="AA214" s="22"/>
     </row>
-    <row r="215" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B215" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="AA215" s="22"/>
-    </row>
-    <row r="216" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA215" s="20"/>
+    </row>
+    <row r="216" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B216" s="21" t="s">
         <v>212</v>
       </c>
       <c r="AA216" s="22"/>
     </row>
-    <row r="217" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B217" s="21" t="s">
         <v>213</v>
       </c>
       <c r="AA217" s="22"/>
     </row>
-    <row r="218" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B218" s="21" t="s">
         <v>214</v>
       </c>
       <c r="AA218" s="22"/>
     </row>
-    <row r="219" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B219" s="21" t="s">
         <v>215</v>
       </c>
       <c r="AA219" s="22"/>
     </row>
-    <row r="220" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B220" s="21" t="s">
         <v>216</v>
       </c>
       <c r="AA220" s="22"/>
     </row>
-    <row r="221" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B221" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="AA221" s="22"/>
-    </row>
-    <row r="222" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA221" s="20"/>
+    </row>
+    <row r="222" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B222" s="21" t="s">
         <v>218</v>
       </c>
       <c r="AA222" s="22"/>
     </row>
-    <row r="223" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B223" s="21" t="s">
         <v>219</v>
       </c>
       <c r="AA223" s="22"/>
     </row>
-    <row r="224" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B224" s="21" t="s">
         <v>220</v>
       </c>
       <c r="AA224" s="22"/>
     </row>
-    <row r="225" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B225" s="21" t="s">
         <v>221</v>
       </c>
       <c r="AA225" s="22"/>
     </row>
-    <row r="226" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B226" s="21" t="s">
         <v>222</v>
       </c>
       <c r="AA226" s="22"/>
     </row>
-    <row r="227" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B227" s="21" t="s">
         <v>223</v>
       </c>
       <c r="AA227" s="22"/>
     </row>
-    <row r="228" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B228" s="21" t="s">
         <v>224</v>
       </c>
       <c r="AA228" s="22"/>
     </row>
-    <row r="229" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B229" s="21" t="s">
         <v>225</v>
       </c>
       <c r="AA229" s="22"/>
     </row>
-    <row r="230" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B230" s="21" t="s">
         <v>226</v>
       </c>
       <c r="AA230" s="22"/>
     </row>
-    <row r="231" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B231" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AA231" s="22"/>
     </row>
-    <row r="232" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B232" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA232" s="22"/>
     </row>
-    <row r="233" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B233" s="21" t="s">
         <v>227</v>
       </c>
       <c r="AA233" s="22"/>
     </row>
-    <row r="234" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:27" ht="12.75" customHeight="1">
       <c r="B234" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="AA234" s="20"/>
-    </row>
-    <row r="235" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA234" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="235" spans="2:27" ht="12.75" customHeight="1">
       <c r="B235" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="AA235" s="20"/>
-    </row>
-    <row r="236" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA235" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="236" spans="2:27" ht="12" customHeight="1">
       <c r="B236" s="19" t="s">
         <v>230</v>
       </c>
       <c r="AA236" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="237" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="237" spans="2:27" ht="12.75" customHeight="1">
       <c r="B237" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="AA237" s="20"/>
-    </row>
-    <row r="238" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA237" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="238" spans="2:27" ht="12.75" customHeight="1">
       <c r="B238" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="AA238" s="20"/>
-    </row>
-    <row r="239" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA238" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="239" spans="2:27" ht="12.75" customHeight="1">
       <c r="B239" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="AA239" s="20"/>
-    </row>
-    <row r="240" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA239" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="240" spans="2:27" ht="12.75" customHeight="1">
       <c r="B240" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="AA240" s="20"/>
-    </row>
-    <row r="241" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA240" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="241" spans="2:27" ht="12.75" customHeight="1">
       <c r="B241" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA241" s="20"/>
+    </row>
+    <row r="242" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B242" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="AA241" s="20"/>
-    </row>
-    <row r="242" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="19" t="s">
-        <v>69</v>
-      </c>
       <c r="AA242" s="20"/>
     </row>
-    <row r="243" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:27" ht="12.75" customHeight="1">
       <c r="B243" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="AA243" s="20"/>
-    </row>
-    <row r="244" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA243" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="244" spans="2:27" ht="12.75" customHeight="1">
       <c r="B244" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="AA244" s="20"/>
-    </row>
-    <row r="245" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA244" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="245" spans="2:27" ht="12.75" customHeight="1">
       <c r="B245" s="19" t="s">
         <v>238</v>
       </c>
       <c r="AA245" s="20"/>
     </row>
-    <row r="246" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:27" ht="12.75" customHeight="1">
       <c r="B246" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="AA246" s="20"/>
-    </row>
-    <row r="247" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA246" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="247" spans="2:27" ht="12.75" customHeight="1">
       <c r="B247" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="AA247" s="20"/>
-    </row>
-    <row r="248" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA247" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="248" spans="2:27" ht="12.75" customHeight="1">
       <c r="B248" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="AA248" s="20"/>
-    </row>
-    <row r="249" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA248" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="249" spans="2:27" ht="12.75" customHeight="1">
       <c r="B249" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="AA249" s="20"/>
-    </row>
-    <row r="250" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA249" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="250" spans="2:27" ht="12.75" customHeight="1">
       <c r="B250" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AA250" s="20"/>
-    </row>
-    <row r="251" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA250" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="251" spans="2:27" ht="12.75" customHeight="1">
       <c r="B251" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AA251" s="20"/>
-    </row>
-    <row r="252" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA251" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="252" spans="2:27" ht="12.75" customHeight="1">
       <c r="B252" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="AA252" s="20"/>
-    </row>
-    <row r="253" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA252" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="253" spans="2:27" ht="12.75" customHeight="1">
       <c r="B253" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="AA253" s="20"/>
-    </row>
-    <row r="254" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA253" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="254" spans="2:27" ht="12.75" customHeight="1">
       <c r="B254" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="AA254" s="20"/>
-    </row>
-    <row r="255" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA254" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="255" spans="2:27" ht="12.75" customHeight="1">
       <c r="B255" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AA255" s="20"/>
-    </row>
-    <row r="256" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA255" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="2:27" ht="12.75" customHeight="1">
       <c r="B256" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="AA256" s="20"/>
-    </row>
-    <row r="257" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA256" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="2:27" ht="12.75" customHeight="1">
       <c r="B257" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="AA257" s="20"/>
-    </row>
-    <row r="258" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA257" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="2:27" ht="12.75" customHeight="1">
       <c r="B258" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="AA258" s="20"/>
-    </row>
-    <row r="259" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA258" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="2:27" ht="12.75" customHeight="1">
       <c r="B259" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AA259" s="20"/>
-    </row>
-    <row r="260" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA259" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="260" spans="2:27" ht="12.75" customHeight="1">
       <c r="B260" s="19" t="s">
         <v>253</v>
       </c>
       <c r="AA260" s="20"/>
     </row>
-    <row r="261" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:27" ht="12.75" customHeight="1">
       <c r="B261" s="19" t="s">
         <v>254</v>
       </c>
       <c r="AA261" s="20"/>
     </row>
-    <row r="262" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:27" ht="12.75" customHeight="1">
       <c r="B262" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="AA262" s="20"/>
-    </row>
-    <row r="263" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA262" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="263" spans="2:27" ht="12.75" customHeight="1">
       <c r="B263" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AA263" s="20"/>
-    </row>
-    <row r="264" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA263" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="264" spans="2:27" ht="12.75" customHeight="1">
       <c r="B264" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="AA264" s="20"/>
-    </row>
-    <row r="265" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA264" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="265" spans="2:27" ht="12.75" customHeight="1">
       <c r="B265" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="AA265" s="20"/>
-    </row>
-    <row r="266" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA265" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="266" spans="2:27" ht="12.75" customHeight="1">
       <c r="B266" s="19" t="s">
         <v>259</v>
       </c>
       <c r="AA266" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="267" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="267" spans="2:27" ht="12.75" customHeight="1">
       <c r="B267" s="19" t="s">
         <v>260</v>
       </c>
       <c r="AA267" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="268" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="268" spans="2:27" ht="12.75" customHeight="1">
       <c r="B268" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA268" s="20"/>
+    </row>
+    <row r="269" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B269" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="AA268" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="269" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="19" t="s">
-        <v>254</v>
-      </c>
       <c r="AA269" s="20"/>
     </row>
-    <row r="270" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:27" ht="12.75" customHeight="1">
       <c r="B270" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="AA270" s="20"/>
-    </row>
-    <row r="271" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA270" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="271" spans="2:27" ht="12.75" customHeight="1">
       <c r="B271" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="AA271" s="20"/>
-    </row>
-    <row r="272" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA271" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="272" spans="2:27" ht="12.75" customHeight="1">
       <c r="B272" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA272" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="273" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B273" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="AA272" s="20"/>
-    </row>
-    <row r="273" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA273" s="20"/>
-    </row>
-    <row r="274" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA273" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="274" spans="2:27" ht="12.75" customHeight="1">
       <c r="B274" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="AA274" s="20"/>
-    </row>
-    <row r="275" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA274" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="275" spans="2:27" ht="12.75" customHeight="1">
       <c r="B275" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="AA275" s="20"/>
-    </row>
-    <row r="276" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA275" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="276" spans="2:27" ht="12.75" customHeight="1">
       <c r="B276" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA276" s="20"/>
+    </row>
+    <row r="277" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B277" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="AA276" s="20"/>
-    </row>
-    <row r="277" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="19" t="s">
-        <v>254</v>
-      </c>
       <c r="AA277" s="20"/>
     </row>
-    <row r="278" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:27" ht="12.75" customHeight="1">
       <c r="B278" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="AA278" s="20"/>
-    </row>
-    <row r="279" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA278" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="279" spans="2:27" ht="12.75" customHeight="1">
       <c r="B279" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="AA279" s="20"/>
-    </row>
-    <row r="280" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA279" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="280" spans="2:27" ht="12.75" customHeight="1">
       <c r="B280" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA280" s="20"/>
+    </row>
+    <row r="281" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B281" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="AA280" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="281" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B281" s="19" t="s">
-        <v>254</v>
-      </c>
       <c r="AA281" s="20"/>
     </row>
-    <row r="282" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:27" ht="12.75" customHeight="1">
       <c r="B282" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="AA282" s="20"/>
-    </row>
-    <row r="283" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA282" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="283" spans="2:27" ht="12.75" customHeight="1">
       <c r="B283" s="19" t="s">
         <v>272</v>
       </c>
       <c r="AA283" s="20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="284" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="284" spans="2:27" ht="12.75" customHeight="1">
       <c r="B284" s="19" t="s">
         <v>273</v>
       </c>
       <c r="AA284" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="285" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="285" spans="2:27" ht="12.75" customHeight="1">
       <c r="B285" s="19" t="s">
         <v>274</v>
       </c>
       <c r="AA285" s="20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="286" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="286" spans="2:27" ht="12.75" customHeight="1">
       <c r="B286" s="19" t="s">
         <v>275</v>
       </c>
@@ -4176,182 +4556,188 @@
         <v>40</v>
       </c>
     </row>
-    <row r="287" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:27" ht="12.75" customHeight="1">
       <c r="B287" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="AA287" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="288" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B288" s="19" t="s">
+      <c r="AA287" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B288" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="AA288" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="289" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA288" s="22"/>
+    </row>
+    <row r="289" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B289" s="21" t="s">
         <v>278</v>
       </c>
       <c r="AA289" s="22"/>
     </row>
-    <row r="290" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B290" s="21" t="s">
+    <row r="290" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B290" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="AA290" s="22"/>
-    </row>
-    <row r="291" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B291" s="19" t="s">
+      <c r="AA290" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="291" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B291" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="AA291" s="20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="292" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA291" s="22"/>
+    </row>
+    <row r="292" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B292" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA292" s="22"/>
+    </row>
+    <row r="293" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B293" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA293" s="22"/>
+    </row>
+    <row r="294" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B294" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA294" s="22"/>
+    </row>
+    <row r="295" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B295" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA295" s="22"/>
+    </row>
+    <row r="296" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B296" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA296" s="22"/>
+    </row>
+    <row r="297" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B297" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA297" s="22"/>
+    </row>
+    <row r="298" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B298" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA298" s="22"/>
+    </row>
+    <row r="299" spans="2:27" ht="12.75" customHeight="1">
+      <c r="B299" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="AA292" s="22"/>
-    </row>
-    <row r="293" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B293" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA293" s="22"/>
-    </row>
-    <row r="294" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B294" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA294" s="22"/>
-    </row>
-    <row r="295" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B295" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA295" s="22"/>
-    </row>
-    <row r="296" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA296" s="22"/>
-    </row>
-    <row r="297" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B297" s="21" t="s">
+      <c r="AA299" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="AA297" s="22"/>
-    </row>
-    <row r="298" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B298" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA298" s="22"/>
-    </row>
-    <row r="299" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B299" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA299" s="22"/>
-    </row>
-    <row r="300" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="2:27" ht="12.75" customHeight="1">
       <c r="B300" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="AA300" s="20"/>
-    </row>
-    <row r="301" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA300" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="301" spans="2:27" ht="12.75" customHeight="1">
       <c r="B301" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="AA301" s="20"/>
-    </row>
-    <row r="302" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA301" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="2:27" ht="12.75" customHeight="1">
       <c r="B302" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="AA302" s="20"/>
-    </row>
-    <row r="303" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B303" s="19" t="s">
+      <c r="AA302" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="303" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B303" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA303" s="22"/>
+    </row>
+    <row r="304" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B304" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA304" s="22"/>
+    </row>
+    <row r="305" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B305" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA305" s="22"/>
+    </row>
+    <row r="306" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B306" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA306" s="22"/>
+    </row>
+    <row r="307" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B307" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="AA303" s="20"/>
-    </row>
-    <row r="304" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B304" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA304" s="22"/>
-    </row>
-    <row r="305" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B305" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA305" s="22"/>
-    </row>
-    <row r="306" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B306" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA306" s="22"/>
-    </row>
-    <row r="307" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B307" s="21" t="s">
-        <v>351</v>
-      </c>
       <c r="AA307" s="22"/>
     </row>
-    <row r="308" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B308" s="21" t="s">
         <v>286</v>
       </c>
       <c r="AA308" s="22"/>
     </row>
-    <row r="309" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B309" s="21" t="s">
         <v>287</v>
       </c>
       <c r="AA309" s="22"/>
     </row>
-    <row r="310" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B310" s="21" t="s">
         <v>288</v>
       </c>
       <c r="AA310" s="22"/>
     </row>
-    <row r="311" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="B311" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA311" s="22"/>
+    </row>
+    <row r="312" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B312" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA312" s="22"/>
+    </row>
+    <row r="313" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B313" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="AA311" s="22"/>
-    </row>
-    <row r="312" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B312" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA312" s="22"/>
-    </row>
-    <row r="313" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B313" s="21" t="s">
-        <v>278</v>
-      </c>
       <c r="AA313" s="22"/>
     </row>
-    <row r="314" spans="2:27" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B314" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA314" s="22"/>
-    </row>
   </sheetData>
+  <autoFilter ref="AA2:AA313"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>